--- a/DATA_goal/Junction_Flooding_445.xlsx
+++ b/DATA_goal/Junction_Flooding_445.xlsx
@@ -443,37 +443,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44781.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.23</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.25</v>
+        <v>22.49</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.55</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.71</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.3</v>
+        <v>22.99</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.75</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.87</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>11.85</v>
+        <v>118.5</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.28</v>
+        <v>22.78</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.43</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.15</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.3</v>
+        <v>12.96</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.43</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.95</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.45</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.14</v>
+        <v>21.36</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.66</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.47</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>3.84</v>
+        <v>38.42</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.35</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.72</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.52</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.55</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.7</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.24</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.38</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.67</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>8.42</v>
+        <v>84.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.72</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.01</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.77</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.45</v>
       </c>
       <c r="AC5" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.24</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_445.xlsx
+++ b/DATA_goal/Junction_Flooding_445.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.75694444445</v>
+        <v>45126.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.23</v>
+        <v>4.347</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.99</v>
+        <v>5.032</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.38</v>
+        <v>0.777</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>22.49</v>
+        <v>10.022</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>16.55</v>
+        <v>8.942</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.71</v>
+        <v>4.483</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22.99</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.75</v>
+        <v>5.852</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.03</v>
+        <v>2.498</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.87</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.68</v>
+        <v>7.398</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>4.257</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.21</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.27</v>
+        <v>3.371</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.09</v>
+        <v>5.736</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.66</v>
+        <v>3.045</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.4</v>
+        <v>0.138</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.227</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>118.5</v>
+        <v>54.637</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>22.78</v>
+        <v>11.069</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.63</v>
+        <v>2.959</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.43</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.66</v>
+        <v>4.913</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.15</v>
+        <v>0.755</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.96</v>
+        <v>5.641</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.74</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.37</v>
+        <v>5.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.24</v>
+        <v>2.517</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.57</v>
+        <v>6.419</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.47</v>
+        <v>0.192</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>20.43</v>
+        <v>7.159</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.86</v>
+        <v>2.015</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.76388888889</v>
+        <v>45126.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.18</v>
+        <v>17.365</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.774</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.28</v>
+        <v>0.909</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.13</v>
+        <v>37.953</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.11</v>
+        <v>31.699</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.53</v>
+        <v>14.067</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.31</v>
+        <v>48.215</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.86</v>
+        <v>21.357</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.16</v>
+        <v>9.587999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1</v>
+        <v>15.208</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.95</v>
+        <v>16.866</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.44</v>
+        <v>16.125</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.36</v>
+        <v>4.155</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.88</v>
+        <v>13.471</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.45</v>
+        <v>19.872</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.1</v>
+        <v>11.43</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.13</v>
+        <v>0.142</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.527</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.36</v>
+        <v>204.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.57</v>
+        <v>38.724</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.74</v>
+        <v>12.324</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.32</v>
+        <v>25.879</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.66</v>
+        <v>14.318</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.66</v>
+        <v>1.888</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.47</v>
+        <v>25.098</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.53</v>
+        <v>11.171</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.63</v>
+        <v>10.996</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.83</v>
+        <v>11.312</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.17</v>
+        <v>17.036</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.115</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>43.563</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.391</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.17</v>
+        <v>15.815</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.77083333334</v>
+        <v>45126.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.68</v>
+        <v>17.988</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.62</v>
+        <v>13.974</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.824</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.32</v>
+        <v>39.246</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.12</v>
+        <v>32.653</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.76</v>
+        <v>14.401</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.58</v>
+        <v>55.419</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.61</v>
+        <v>22.024</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.97</v>
+        <v>9.906000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.45</v>
+        <v>15.321</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.29</v>
+        <v>16.829</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.72</v>
+        <v>16.664</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.77</v>
+        <v>4.378</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.01</v>
+        <v>13.982</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.03</v>
+        <v>20.442</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.88</v>
+        <v>11.793</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.139</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.516</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.42</v>
+        <v>209.899</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>39.907</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.78</v>
+        <v>12.817</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.25</v>
+        <v>26.82</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.78</v>
+        <v>14.559</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.65</v>
+        <v>1.904</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.83</v>
+        <v>27.529</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.45</v>
+        <v>11.521</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.35</v>
+        <v>10.902</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.72</v>
+        <v>11.777</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.51</v>
+        <v>17.223</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.092</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.52</v>
+        <v>50.302</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.38</v>
+        <v>7.612</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.47</v>
+        <v>16.312</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.77777777778</v>
+        <v>45126.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.55</v>
+        <v>6.52</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.58</v>
+        <v>5.24</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.39</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.7</v>
+        <v>14.28</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.24</v>
+        <v>11.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.84</v>
+        <v>5.31</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.38</v>
+        <v>24.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.27</v>
+        <v>8.1</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.12</v>
+        <v>3.68</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.73</v>
+        <v>5.82</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.67</v>
+        <v>6.54</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.24</v>
+        <v>6.06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.02</v>
+        <v>5.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>7.58</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.28</v>
+        <v>4.34</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.2</v>
+        <v>72.64</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.72</v>
+        <v>14.87</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.55</v>
+        <v>4.57</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.01</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.82</v>
+        <v>5.54</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.77</v>
+        <v>11.94</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.9</v>
+        <v>4.19</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.45</v>
+        <v>4.28</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.21</v>
+        <v>4.25</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.05</v>
+        <v>6.52</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.24</v>
+        <v>22.75</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.01</v>
+        <v>2.86</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.94</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.34</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.17</v>
+        <v>5.94</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_445.xlsx
+++ b/DATA_goal/Junction_Flooding_445.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45126.50694444445</v>
+        <v>44781.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.347</v>
+        <v>10.232</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.032</v>
+        <v>6.988</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.777</v>
+        <v>3.382</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.022</v>
+        <v>22.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.942</v>
+        <v>16.551</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.483</v>
+        <v>7.711</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.151999999999999</v>
+        <v>22.993</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.852</v>
+        <v>12.747</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.498</v>
+        <v>5.033</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.03</v>
+        <v>6.872</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.398</v>
+        <v>8.682</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.257</v>
+        <v>9.968</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.73</v>
+        <v>2.214</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.371</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.736</v>
+        <v>11.091</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.045</v>
+        <v>7.662</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.138</v>
+        <v>2.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.227</v>
+        <v>1.071</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>54.637</v>
+        <v>118.497</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.069</v>
+        <v>22.775</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.959</v>
+        <v>7.635</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.58</v>
+        <v>14.429</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.913</v>
+        <v>7.663</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.755</v>
+        <v>2.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.641</v>
+        <v>12.965</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.12</v>
+        <v>6.744</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.177</v>
+        <v>6.372</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.517</v>
+        <v>7.242</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.419</v>
+        <v>9.571</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.192</v>
+        <v>2.474</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.159</v>
+        <v>20.428</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.015</v>
+        <v>3.858</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.399</v>
+        <v>9.544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45126.51388888889</v>
+        <v>44781.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.365</v>
+        <v>2.178</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.774</v>
+        <v>1.378</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.909</v>
+        <v>1.282</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>37.953</v>
+        <v>5.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.699</v>
+        <v>3.115</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.067</v>
+        <v>1.529</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>48.215</v>
+        <v>10.313</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.357</v>
+        <v>2.862</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.587999999999999</v>
+        <v>1.164</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.208</v>
+        <v>0.996</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.866</v>
+        <v>1.948</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.125</v>
+        <v>2.438</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.155</v>
+        <v>0.357</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.471</v>
+        <v>1.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.872</v>
+        <v>2.445</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.43</v>
+        <v>2.1</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.142</v>
+        <v>1.131</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.527</v>
+        <v>0.345</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>204.02</v>
+        <v>21.358</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>38.724</v>
+        <v>5.568</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.324</v>
+        <v>1.735</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.879</v>
+        <v>3.319</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.318</v>
+        <v>1.657</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.888</v>
+        <v>0.657</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.098</v>
+        <v>5.47</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.171</v>
+        <v>1.533</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.996</v>
+        <v>1.629</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.312</v>
+        <v>1.835</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.036</v>
+        <v>2.168</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.115</v>
+        <v>1.101</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.563</v>
+        <v>9.945</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.391</v>
+        <v>0.705</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.815</v>
+        <v>2.174</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45126.52083333334</v>
+        <v>44781.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.988</v>
+        <v>3.676</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.974</v>
+        <v>2.619</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.824</v>
+        <v>0.877</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>39.246</v>
+        <v>8.321999999999999</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.653</v>
+        <v>6.118</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.401</v>
+        <v>2.759</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>55.419</v>
+        <v>11.582</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.024</v>
+        <v>4.61</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.906000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.321</v>
+        <v>2.454</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.829</v>
+        <v>3.286</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.664</v>
+        <v>3.721</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.378</v>
+        <v>0.775</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.982</v>
+        <v>3.008</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.442</v>
+        <v>4.026</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.793</v>
+        <v>2.881</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.139</v>
+        <v>0.784</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.516</v>
+        <v>0.264</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>209.899</v>
+        <v>38.419</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>39.907</v>
+        <v>8.361000000000001</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.817</v>
+        <v>2.776</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>26.82</v>
+        <v>5.245</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.559</v>
+        <v>2.777</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.904</v>
+        <v>0.648</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.529</v>
+        <v>5.832</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.521</v>
+        <v>2.452</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.902</v>
+        <v>2.347</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.777</v>
+        <v>2.719</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.223</v>
+        <v>3.51</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.092</v>
+        <v>0.708</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>50.302</v>
+        <v>10.518</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.612</v>
+        <v>1.384</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.312</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45126.52777777778</v>
+        <v>44781.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.52</v>
+        <v>7.553</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.24</v>
+        <v>5.581</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>16.701</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>13.236</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>5.837</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>21.379</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>9.266</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>4.116</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5.729</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>7.237</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>5.285</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>84.202</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>5.552</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>11.014</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>5.815</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>10.772</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>4.904</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>4.453</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>5.211</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>7.045</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>19.236</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>3.014</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>6.941</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.78471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y6" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>24.85</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>72.64</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>5.94</v>
+      <c r="Z6" s="4" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.17</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_445.xlsx
+++ b/DATA_goal/Junction_Flooding_445.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.75694444445</v>
+        <v>45126.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.232</v>
+        <v>4.347</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.988</v>
+        <v>5.032</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.382</v>
+        <v>0.777</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>22.493</v>
+        <v>10.022</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>16.551</v>
+        <v>8.942</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.711</v>
+        <v>4.483</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22.993</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.747</v>
+        <v>5.852</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.033</v>
+        <v>2.498</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.872</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.682</v>
+        <v>7.398</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.968</v>
+        <v>4.257</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.214</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.271000000000001</v>
+        <v>3.371</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.091</v>
+        <v>5.736</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.662</v>
+        <v>3.045</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.404</v>
+        <v>0.138</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.071</v>
+        <v>0.227</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>118.497</v>
+        <v>54.637</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>22.775</v>
+        <v>11.069</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.635</v>
+        <v>2.959</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.429</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.663</v>
+        <v>4.913</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.148</v>
+        <v>0.755</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.965</v>
+        <v>5.641</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.744</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.372</v>
+        <v>5.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.242</v>
+        <v>2.517</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.571</v>
+        <v>6.419</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.474</v>
+        <v>0.192</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>20.428</v>
+        <v>7.159</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.858</v>
+        <v>2.015</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.544</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.76388888889</v>
+        <v>45126.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.178</v>
+        <v>17.365</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.378</v>
+        <v>13.774</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.282</v>
+        <v>0.909</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.13</v>
+        <v>37.953</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.115</v>
+        <v>31.699</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.529</v>
+        <v>14.067</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.313</v>
+        <v>48.215</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.862</v>
+        <v>21.357</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.164</v>
+        <v>9.587999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.996</v>
+        <v>15.208</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.948</v>
+        <v>16.866</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.438</v>
+        <v>16.125</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.357</v>
+        <v>4.155</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.88</v>
+        <v>13.471</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.445</v>
+        <v>19.872</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.1</v>
+        <v>11.43</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.131</v>
+        <v>0.142</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.345</v>
+        <v>0.527</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.358</v>
+        <v>204.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.568</v>
+        <v>38.724</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.735</v>
+        <v>12.324</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.319</v>
+        <v>25.879</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.657</v>
+        <v>14.318</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.657</v>
+        <v>1.888</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.47</v>
+        <v>25.098</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.533</v>
+        <v>11.171</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.629</v>
+        <v>10.996</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.835</v>
+        <v>11.312</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.168</v>
+        <v>17.036</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.101</v>
+        <v>0.115</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.945</v>
+        <v>43.563</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.705</v>
+        <v>7.391</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.174</v>
+        <v>15.815</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.77083333334</v>
+        <v>45126.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.676</v>
+        <v>17.988</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.619</v>
+        <v>13.974</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.877</v>
+        <v>0.824</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.321999999999999</v>
+        <v>39.246</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.118</v>
+        <v>32.653</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.759</v>
+        <v>14.401</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.582</v>
+        <v>55.419</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.61</v>
+        <v>22.024</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.97</v>
+        <v>9.906000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.454</v>
+        <v>15.321</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.286</v>
+        <v>16.829</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.721</v>
+        <v>16.664</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.775</v>
+        <v>4.378</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.008</v>
+        <v>13.982</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.026</v>
+        <v>20.442</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.881</v>
+        <v>11.793</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.139</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.264</v>
+        <v>0.516</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.419</v>
+        <v>209.899</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.361000000000001</v>
+        <v>39.907</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.776</v>
+        <v>12.817</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.245</v>
+        <v>26.82</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.777</v>
+        <v>14.559</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.648</v>
+        <v>1.904</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.832</v>
+        <v>27.529</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.452</v>
+        <v>11.521</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.347</v>
+        <v>10.902</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.719</v>
+        <v>11.777</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.51</v>
+        <v>17.223</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.708</v>
+        <v>0.092</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.518</v>
+        <v>50.302</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.384</v>
+        <v>7.612</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.47</v>
+        <v>16.312</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.77777777778</v>
+        <v>45126.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.553</v>
+        <v>6.52</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.581</v>
+        <v>5.24</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.801</v>
+        <v>0.39</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.701</v>
+        <v>14.28</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.236</v>
+        <v>11.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.837</v>
+        <v>5.31</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.379</v>
+        <v>24.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.266</v>
+        <v>8.1</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.116</v>
+        <v>3.68</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.729</v>
+        <v>5.82</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.67</v>
+        <v>6.54</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.237</v>
+        <v>6.06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.783</v>
+        <v>1.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.015</v>
+        <v>5.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>7.58</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.285</v>
+        <v>4.34</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.638</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.323</v>
+        <v>0.17</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.202</v>
+        <v>72.64</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.72</v>
+        <v>14.87</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.552</v>
+        <v>4.57</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.014</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.815</v>
+        <v>5.54</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.972</v>
+        <v>0.71</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.772</v>
+        <v>11.94</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.904</v>
+        <v>4.19</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.453</v>
+        <v>4.28</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.211</v>
+        <v>4.25</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.045</v>
+        <v>6.52</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.522</v>
+        <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.236</v>
+        <v>22.75</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.014</v>
+        <v>2.86</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.941</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.34</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.17</v>
+        <v>5.94</v>
       </c>
     </row>
   </sheetData>
